--- a/data/trans_camb/P1413-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1413-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-2.298129858238104</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-1.587381188246768</v>
+        <v>-1.587381188246767</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>7.907631497275664</v>
@@ -655,7 +655,7 @@
         <v>5.6932573067934</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-2.506866541724388</v>
+        <v>-2.506866541724391</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.8104376464354107</v>
@@ -664,7 +664,7 @@
         <v>1.677158856719033</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-2.026462901416413</v>
+        <v>-2.026462901416416</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.57862223407067</v>
+        <v>-11.24649238683163</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.179908312217519</v>
+        <v>-7.434901793834077</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.08048593540558</v>
+        <v>-7.193891985189772</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.206813364142139</v>
+        <v>0.667017032062722</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.3846691902434469</v>
+        <v>-0.9145154754859539</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.883700858214465</v>
+        <v>-7.571011185958497</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.081727259909929</v>
+        <v>-3.445391243533127</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.933451462515489</v>
+        <v>-2.789263927006776</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-5.382017031455332</v>
+        <v>-5.699575495254551</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.618354361510406</v>
+        <v>-1.207788148115451</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.115376524818915</v>
+        <v>3.900604970136846</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.718326657578864</v>
+        <v>3.590128156791665</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.77458045764872</v>
+        <v>14.61337389374986</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.18024450437416</v>
+        <v>12.56683430533247</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.299797375278247</v>
+        <v>2.323509524221488</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.547921566564291</v>
+        <v>5.441291319044093</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.934635106874472</v>
+        <v>5.779319571256244</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.47979551569157</v>
+        <v>1.499390530843743</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.1918010677240095</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1324822466839002</v>
+        <v>-0.1324822466839001</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.5645545699628148</v>
@@ -760,7 +760,7 @@
         <v>0.4064623435768019</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1789743190366125</v>
+        <v>-0.1789743190366128</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.06247948343532907</v>
@@ -769,7 +769,7 @@
         <v>0.1292980644071592</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1562271395439751</v>
+        <v>-0.1562271395439754</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7322557641691577</v>
+        <v>-0.7345650533451532</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5234142691152105</v>
+        <v>-0.5090154259008166</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.441691325550073</v>
+        <v>-0.475275859171127</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.0278686341323918</v>
+        <v>0.02383261304945912</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.02669420510604089</v>
+        <v>-0.06122061398385972</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4413382023131486</v>
+        <v>-0.4302833986097995</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2132130798629105</v>
+        <v>-0.224065793947959</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1356034950751262</v>
+        <v>-0.1814393446480509</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3577855459531956</v>
+        <v>-0.3623279886942707</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1366447476418586</v>
+        <v>-0.09617744688200665</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3795318902799131</v>
+        <v>0.4422986306622269</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4395295001162908</v>
+        <v>0.3756612209287111</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.292953188486345</v>
+        <v>1.329308961085394</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.102061056866566</v>
+        <v>1.196675563494762</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2266067656219049</v>
+        <v>0.2193439508364377</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4760871608136917</v>
+        <v>0.5143710169562161</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5636739731352759</v>
+        <v>0.5288542288069076</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1427782655649102</v>
+        <v>0.1467949681239604</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-20.73796197513852</v>
+        <v>-20.34318449147549</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-21.72414704859433</v>
+        <v>-21.82797400132691</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.80583242579636</v>
+        <v>-11.84679623155341</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-26.00161651775997</v>
+        <v>-26.12476849560857</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-31.04964040868996</v>
+        <v>-31.19830045239634</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-9.264167290012004</v>
+        <v>-8.888099179396324</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-21.76401543996553</v>
+        <v>-22.19828495810927</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-24.93595919808626</v>
+        <v>-24.95659725252147</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-8.803511409552341</v>
+        <v>-8.804629998446471</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-12.0076806106307</v>
+        <v>-11.93687652532069</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-13.11354299520535</v>
+        <v>-13.36635195171933</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.175942568482077</v>
+        <v>-0.7690050408258869</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-15.54036262770519</v>
+        <v>-15.82414606380624</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-21.68462880613795</v>
+        <v>-22.05227841306964</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.888235823811234</v>
+        <v>1.664531176983282</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-15.09227848281711</v>
+        <v>-15.03050618885574</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-18.81841113531239</v>
+        <v>-18.5105328545743</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.8602229310565254</v>
+        <v>-1.48324089790005</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8275879158276671</v>
+        <v>-0.8307603866341502</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8690216361313942</v>
+        <v>-0.8661411917341025</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4801369848134304</v>
+        <v>-0.4865083714810404</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7193506589091854</v>
+        <v>-0.7209731934095285</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8572419616277693</v>
+        <v>-0.855456286756727</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2511249920636319</v>
+        <v>-0.2404348373409427</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7405481935182243</v>
+        <v>-0.7405683657936682</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8452138394238321</v>
+        <v>-0.8433718352261226</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.30044565940935</v>
+        <v>-0.2996255231266896</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.6048082078474805</v>
+        <v>-0.5922773485600811</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.6711794548143352</v>
+        <v>-0.6798894717337269</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.04735663831690091</v>
+        <v>-0.04235461146111091</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.5013006111022323</v>
+        <v>-0.5117468358413702</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.714925646062779</v>
+        <v>-0.7020854419535373</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06239914115015224</v>
+        <v>0.05938226140394733</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.5789635083442266</v>
+        <v>-0.5892563709514943</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.7230196661777131</v>
+        <v>-0.7264903610156344</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.03209895833775524</v>
+        <v>-0.05596799799100707</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.8689003205821194</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11.04198743884586</v>
+        <v>11.04198743884585</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.6365093091322993</v>
@@ -1083,7 +1083,7 @@
         <v>0.5661134167997295</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>14.28636442078567</v>
+        <v>14.28636442078568</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.1473429672317408</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.205608289134281</v>
+        <v>-5.168227532108147</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.073366994257106</v>
+        <v>-4.913551652761314</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.710948432433953</v>
+        <v>6.038728506934857</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.150658429148884</v>
+        <v>-4.699430110245326</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.693122103901042</v>
+        <v>-5.335436273302778</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>8.85668817213768</v>
+        <v>8.902140602836091</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.577405849816812</v>
+        <v>-3.842898696965614</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.462746357261431</v>
+        <v>-3.320052767545489</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.769694951946533</v>
+        <v>9.026116640563348</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.433467016609633</v>
+        <v>3.154951285427677</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.103268365276906</v>
+        <v>3.359856403080203</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15.74059739024078</v>
+        <v>15.82409948787956</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.16164377341136</v>
+        <v>6.513637508495465</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.518248918887114</v>
+        <v>6.380262221725038</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>19.50360077326543</v>
+        <v>19.4209217918682</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.74976313770107</v>
+        <v>3.521040313185612</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.331896310832888</v>
+        <v>3.595582644249212</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>16.23358291810105</v>
+        <v>16.52438921785052</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.03974221035885419</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1.002929242136247</v>
+        <v>1.002929242136248</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.01292701832088934</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.481220126512442</v>
+        <v>-0.5037431983264455</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.485466062641901</v>
+        <v>-0.4711986305448324</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5104559504691594</v>
+        <v>0.5081330762483001</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3022442322382806</v>
+        <v>-0.2880468846207059</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2682440670224311</v>
+        <v>-0.3161199724605518</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5039852597230058</v>
+        <v>0.4999808231034029</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2722355166747235</v>
+        <v>-0.2831765011261148</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2687438878996785</v>
+        <v>-0.2548825919066116</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.6572625765409511</v>
+        <v>0.6882745953480626</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5313845643237728</v>
+        <v>0.522281691754391</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.516650020821831</v>
+        <v>0.5982445288016472</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.570509334858527</v>
+        <v>2.518545676105469</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5480808289131992</v>
+        <v>0.5978048906738745</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5753829616352951</v>
+        <v>0.5540438893470788</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.717341597590654</v>
+        <v>1.661313848887155</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3959876580551081</v>
+        <v>0.3620776423527356</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3399221433994514</v>
+        <v>0.3838562917045184</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.669794721272634</v>
+        <v>1.748339815194999</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>4.74066739446849</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>16.23503871811282</v>
+        <v>16.23503871811283</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.7999057101179291</v>
@@ -1306,7 +1306,7 @@
         <v>-3.019487120509018</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.99045738819044</v>
+        <v>5.990457388190437</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-14.93150427724449</v>
+        <v>-14.5457311767712</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-16.24552874307518</v>
+        <v>-15.77889904736767</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-11.02877456908568</v>
+        <v>-11.33601977386306</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.002792945256839</v>
+        <v>2.316587616263341</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.8024045197799985</v>
+        <v>-0.464895314671331</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>11.05980751103337</v>
+        <v>11.00641104494287</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.233450451900199</v>
+        <v>-4.342398835414174</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-6.435986803996216</v>
+        <v>-6.46776668955514</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.286766010925481</v>
+        <v>2.103433124279836</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-4.623754676111572</v>
+        <v>-4.366655362226438</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-6.207284491167138</v>
+        <v>-6.267285955989987</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3605113851615755</v>
+        <v>0.1691283484056407</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.96953495414409</v>
+        <v>12.93743801605448</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.08565853563228</v>
+        <v>9.578686738409482</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>21.58244390977217</v>
+        <v>21.84886167161016</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.929679733024204</v>
+        <v>2.617492888384639</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8396485014672331</v>
+        <v>0.6808646406593347</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>10.2396910243758</v>
+        <v>9.950395809713513</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.3508257489422877</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.201448898109746</v>
+        <v>1.201448898109747</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.04912891584715423</v>
@@ -1411,7 +1411,7 @@
         <v>-0.1854520186175236</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3679242105509942</v>
+        <v>0.367924210550994</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6622404778031168</v>
+        <v>-0.6616398156727611</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7435453925628452</v>
+        <v>-0.7207007207436937</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4935935845942537</v>
+        <v>-0.5131690486145811</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1270796064621134</v>
+        <v>0.1321065754547924</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.0582790599487082</v>
+        <v>-0.02708119072380246</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6807356916060376</v>
+        <v>0.6543249087650782</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2337363601327582</v>
+        <v>-0.2430099850039928</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3579956764844458</v>
+        <v>-0.364053343187394</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1296776106775887</v>
+        <v>0.1145961500544375</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.2553617146306054</v>
+        <v>-0.2453216900847099</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3630905785204382</v>
+        <v>-0.3610339392161069</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.02441845550936581</v>
+        <v>0.008575391275217729</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.199826654934449</v>
+        <v>1.14915079804148</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8888592637270469</v>
+        <v>0.8590036976430225</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.98326961325497</v>
+        <v>1.964103995461834</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2040440027385809</v>
+        <v>0.1825353572560915</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.05948854371533045</v>
+        <v>0.04846624622566109</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7216666684285398</v>
+        <v>0.7075611577665936</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>3.403201011719931</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9.457555537611222</v>
+        <v>9.457555537611224</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>18.04712690183948</v>
@@ -1511,7 +1511,7 @@
         <v>0.1445598471546322</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>8.393546863235803</v>
+        <v>8.393546863235798</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>13.59162032198766</v>
@@ -1520,7 +1520,7 @@
         <v>1.772981474732835</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>9.065920956128796</v>
+        <v>9.065920956128794</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.729221552770707</v>
+        <v>3.331783328586049</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.615866251858376</v>
+        <v>-1.404743860886352</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.92299001581064</v>
+        <v>4.39070360897488</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10.19544812492678</v>
+        <v>9.023946257215206</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.684358579596848</v>
+        <v>-7.129530032262466</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.975327921887724</v>
+        <v>2.024960460108121</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>8.484357515048197</v>
+        <v>8.722603259462119</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.777756503760829</v>
+        <v>-2.633279268057248</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.137128970051406</v>
+        <v>4.720718483256293</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>15.34236411996482</v>
+        <v>15.35825545334472</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.661529538358126</v>
+        <v>8.667200477889899</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.40095345567336</v>
+        <v>14.54558075409273</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>25.58754459632448</v>
+        <v>25.90260641543811</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.683657020614207</v>
+        <v>6.461174717829202</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>13.97961460746945</v>
+        <v>15.00573266498242</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>18.29298812789207</v>
+        <v>19.08466581658974</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.450666421143454</v>
+        <v>5.840471928604623</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>13.29788481609203</v>
+        <v>13.35445328624672</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.01034236971925158</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6005067563650046</v>
+        <v>0.6005067563650043</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>1.375346715993016</v>
@@ -1625,7 +1625,7 @@
         <v>0.1794093854170916</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.917387649086459</v>
+        <v>0.9173876490864588</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2865281093973871</v>
+        <v>0.3309368455918809</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2326069127910135</v>
+        <v>-0.218662206818238</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.4756542733404912</v>
+        <v>0.4655814021568609</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.5831939926534503</v>
+        <v>0.5102980169544935</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3826039980139044</v>
+        <v>-0.4002548220806148</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1013516750225373</v>
+        <v>0.1109342884866108</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.647016027982233</v>
+        <v>0.7166572846709167</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2184298089918961</v>
+        <v>-0.2252314132023434</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.4011521608587657</v>
+        <v>0.3770853748812679</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>4.50058569982947</v>
+        <v>4.160589345240409</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.462649907046869</v>
+        <v>2.395749560438984</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>4.309704234163726</v>
+        <v>3.991802834515517</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.713459230386682</v>
+        <v>2.523485840834869</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7434434260915401</v>
+        <v>0.6295519164354531</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.370006132544057</v>
+        <v>1.620659007334216</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>2.299605976072315</v>
+        <v>2.466964867304697</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6683449307694727</v>
+        <v>0.7651328160370824</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.778730022500868</v>
+        <v>1.728769581647947</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>-3.806127512125437</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>16.62210911726639</v>
+        <v>16.6221091172664</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.365047706314763</v>
+        <v>-6.079399245545583</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-9.3464239940915</v>
+        <v>-9.926615137665584</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6.409123896739855</v>
+        <v>6.812990146884931</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.20511390581634</v>
+        <v>-3.917012214186391</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-9.823188839070646</v>
+        <v>-9.08719711384785</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>14.65624184776735</v>
+        <v>15.28273819684478</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.36309506895156</v>
+        <v>-3.256554421879572</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-7.987596645725431</v>
+        <v>-7.520473120684546</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>11.81578342893058</v>
+        <v>12.17344001947692</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>6.567194398941691</v>
+        <v>6.515704022775314</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.82628735199767</v>
+        <v>1.096111654919735</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>17.91803726872077</v>
+        <v>18.34570992000235</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8.94323084713756</v>
+        <v>8.707018703881406</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.763628873459092</v>
+        <v>2.304026731657745</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>27.18388425996976</v>
+        <v>27.18182013203927</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>5.574757465252933</v>
+        <v>5.751693638089844</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-0.1445635863336578</v>
+        <v>0.5120789108816322</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>20.78991172089311</v>
+        <v>21.07384001160115</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.3030139927737454</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.9365299150980932</v>
+        <v>0.9365299150980937</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.1627016875742383</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3356497766884717</v>
+        <v>-0.3667031542404435</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5913242633859337</v>
+        <v>-0.5898491100515282</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.3746209589889992</v>
+        <v>0.4085861351941596</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2222223971095915</v>
+        <v>-0.2213802875836816</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5335193257986793</v>
+        <v>-0.5062994094858845</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7599572967481657</v>
+        <v>0.8087652670035645</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2035988243723671</v>
+        <v>-0.1990655525270548</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4906774351351278</v>
+        <v>-0.4663199936664089</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.6852610871063236</v>
+        <v>0.7062936846147644</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.6251954814724546</v>
+        <v>0.6035090771449246</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1837521035705083</v>
+        <v>0.1494182481801566</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.75087013742597</v>
+        <v>1.831360774530365</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.7297846485862106</v>
+        <v>0.7263411711748776</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1465133314273185</v>
+        <v>0.1952258986496502</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2.266826948167795</v>
+        <v>2.301144048978485</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.448738226567692</v>
+        <v>0.4801489744824856</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.00566858197733079</v>
+        <v>0.04773138347901771</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.696978576269159</v>
+        <v>1.749480294877181</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>2.282311446322158</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>29.63499372966091</v>
+        <v>29.6349937296609</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1.002674024826239</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-7.979237839780784</v>
+        <v>-8.074965222627641</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-9.413457878010552</v>
+        <v>-9.37031468391268</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>6.691000949073689</v>
+        <v>6.577634155580705</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.146463201735329</v>
+        <v>1.893339383752048</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.590438188838939</v>
+        <v>-1.566725560564549</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>24.95082088054046</v>
+        <v>25.10374751468184</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.780990515043795</v>
+        <v>-1.937856074829441</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-4.148707011040043</v>
+        <v>-4.243256410938288</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>17.28179272995669</v>
+        <v>17.35766286363098</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.7621639766108125</v>
+        <v>-0.7288394365669019</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-2.075089482770285</v>
+        <v>-1.993567620596422</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>15.99078519499583</v>
+        <v>15.75574496395652</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>10.53845460468705</v>
+        <v>10.18720134843718</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>6.391860363156304</v>
+        <v>6.141432415418984</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>33.8535178109127</v>
+        <v>33.95522341494551</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.056411576641107</v>
+        <v>3.80182660326318</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.21083438650114</v>
+        <v>1.134652633360848</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>23.65797535479622</v>
+        <v>23.75896285685635</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.3718147749840544</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.7358990611508949</v>
+        <v>0.7358990611508944</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.4460865912702714</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4758091870141571</v>
+        <v>-0.4717778150479421</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5450170304960318</v>
+        <v>-0.5395196772048285</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.3926985403634727</v>
+        <v>0.3875637775896157</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1324710924977552</v>
+        <v>0.1141977898061961</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.09894556495893578</v>
+        <v>-0.1011385519685284</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.534895063966346</v>
+        <v>1.535651457942464</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1088174475668327</v>
+        <v>-0.12221103029496</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2656748211389574</v>
+        <v>-0.2682579100225886</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.086045891641726</v>
+        <v>1.084413460285097</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.04694007199441803</v>
+        <v>-0.05554637381304526</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1435119488074778</v>
+        <v>-0.1505159430246201</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.257828812876753</v>
+        <v>1.236387454000119</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.8658570085842768</v>
+        <v>0.8381287711168182</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.526980589305075</v>
+        <v>0.5047903123548058</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.795263251872062</v>
+        <v>2.785995621846995</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3165508407276194</v>
+        <v>0.2866380375080796</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.09098283273632481</v>
+        <v>0.08599503634371421</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.826512031292494</v>
+        <v>1.821589991298121</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>-11.3352963711127</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>4.215759640356001</v>
+        <v>4.215759640356007</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-10.61920943338016</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-16.53759091368804</v>
+        <v>-16.11717629441167</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-16.07569606421118</v>
+        <v>-15.95194362840852</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-7.283769900772402</v>
+        <v>-7.095114935901048</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-12.72409770254759</v>
+        <v>-12.9502854464931</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-15.25546577281637</v>
+        <v>-15.76466524453912</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.325141063561606</v>
+        <v>0.3018944256951162</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-13.1343485337852</v>
+        <v>-13.38705475318748</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-14.13494118063605</v>
+        <v>-14.59461097225815</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-2.451917504739376</v>
+        <v>-2.10651758225377</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-9.317130417093475</v>
+        <v>-8.996344732676285</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-8.4744559609214</v>
+        <v>-8.42647850403176</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.640417720156221</v>
+        <v>0.6471721907846353</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-4.818484859107399</v>
+        <v>-4.7762405416337</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-7.529554801867635</v>
+        <v>-7.493374485855442</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>8.194302254792696</v>
+        <v>7.988171883981019</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-7.939894142511696</v>
+        <v>-7.801882024203277</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-9.139357796936869</v>
+        <v>-9.103189100902636</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.402125686861159</v>
+        <v>3.690440242460514</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.4743585336570811</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1764207565270455</v>
+        <v>0.1764207565270458</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.4741621043501606</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.7099188999649967</v>
+        <v>-0.7041847024418908</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6963262768820324</v>
+        <v>-0.6952560622964727</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3115856353333696</v>
+        <v>-0.3040374072829604</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.4882765013561825</v>
+        <v>-0.4998901222246931</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.5859991017014903</v>
+        <v>-0.5974445488111197</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01179838080340371</v>
+        <v>0.0113279234476008</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.5530282721871126</v>
+        <v>-0.5641995060986</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.5990384515454402</v>
+        <v>-0.6044205379553386</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1015358411817042</v>
+        <v>-0.08866552891408544</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.4801678500448672</v>
+        <v>-0.4782044213695814</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.4550355475011928</v>
+        <v>-0.4576570927657661</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.03653937690802318</v>
+        <v>0.03865125566968044</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.2133721036878284</v>
+        <v>-0.2205466178431316</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.3418230891085052</v>
+        <v>-0.3325360125859326</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.3865568742040151</v>
+        <v>0.371981682932186</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.3780729150251524</v>
+        <v>-0.3777302936266781</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.4358759957677265</v>
+        <v>-0.4324252978487649</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1660893361165228</v>
+        <v>0.1774312633826069</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>-5.340418799283678</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>11.36137186922807</v>
+        <v>11.36137186922808</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>-4.064974707535255</v>
@@ -2376,7 +2376,7 @@
         <v>-6.635903669587606</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>7.012548860761641</v>
+        <v>7.012548860761636</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-8.681516683518431</v>
+        <v>-8.700826026289418</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-9.584483346354375</v>
+        <v>-9.557750949415313</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>0.5241594416072171</v>
+        <v>0.4798565368340457</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-2.991918371534685</v>
+        <v>-2.792947881572788</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-6.978523048715181</v>
+        <v>-7.263004217022146</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>9.44251045014453</v>
+        <v>9.494904724380062</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-5.338244833321701</v>
+        <v>-5.373129774314584</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-7.901507126246393</v>
+        <v>-7.867802248375644</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>5.663639422720211</v>
+        <v>5.698619557546883</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-5.596035709460838</v>
+        <v>-5.450823565116044</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-6.355488338273818</v>
+        <v>-6.38807115958283</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>4.385340342902444</v>
+        <v>4.040173583540071</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.8000359575584898</v>
+        <v>0.7664172219601502</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-3.519197255170162</v>
+        <v>-3.564284392161087</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>13.14831164383488</v>
+        <v>13.44661288881157</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>-2.885629106314433</v>
+        <v>-2.80761807492027</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-5.382944837509069</v>
+        <v>-5.429821804595076</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>8.416463257998066</v>
+        <v>8.440254836056369</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>-0.2775424709975345</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.5904524234935262</v>
+        <v>0.5904524234935268</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>-0.2291924647865672</v>
@@ -2481,7 +2481,7 @@
         <v>-0.3741472524539242</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.3953833599148552</v>
+        <v>0.3953833599148548</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.5086110283759897</v>
+        <v>-0.511840605833535</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.5626901108576771</v>
+        <v>-0.5619006347939896</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.03239554273501855</v>
+        <v>0.0306461380816729</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.1499484157988607</v>
+        <v>-0.1389005384868293</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.3474075568756422</v>
+        <v>-0.3621486145938123</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.4652845572200422</v>
+        <v>0.4659596874717798</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.290236239791675</v>
+        <v>-0.2909911225499706</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.4251647713000814</v>
+        <v>-0.4262225087466893</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.3094198647854285</v>
+        <v>0.3062053076882479</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.3639505837078729</v>
+        <v>-0.3560331550787582</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.4173263125205601</v>
+        <v>-0.4192027050622816</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.2888159833331937</v>
+        <v>0.2685312560659265</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.04404664841476543</v>
+        <v>0.04045969770909651</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.1898077586816076</v>
+        <v>-0.194601651811518</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.7279866425013184</v>
+        <v>0.7281739528661447</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>-0.166974806608747</v>
+        <v>-0.1621197107254959</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.3139102047828223</v>
+        <v>-0.3175247769438817</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.4924517842045966</v>
+        <v>0.4915356513790248</v>
       </c>
     </row>
     <row r="58">
